--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,116 +8,243 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
-  <si>
-    <t>UserName1</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>UserName2</t>
-  </si>
-  <si>
-    <t>UserName3</t>
-  </si>
-  <si>
-    <t>UserName4</t>
-  </si>
-  <si>
-    <t>UserName5</t>
-  </si>
-  <si>
-    <t>UserName6</t>
-  </si>
-  <si>
-    <t>UserName7</t>
-  </si>
-  <si>
-    <t>UserName8</t>
-  </si>
-  <si>
-    <t>UserName9</t>
-  </si>
-  <si>
-    <t>UserName10</t>
-  </si>
-  <si>
-    <t>UserName11</t>
-  </si>
-  <si>
-    <t>UserName12</t>
-  </si>
-  <si>
-    <t>UserName13</t>
-  </si>
-  <si>
-    <t>UserName14</t>
-  </si>
-  <si>
-    <t>UserName15</t>
-  </si>
-  <si>
-    <t>Password2</t>
-  </si>
-  <si>
-    <t>Password3</t>
-  </si>
-  <si>
-    <t>Password4</t>
-  </si>
-  <si>
-    <t>Password5</t>
-  </si>
-  <si>
-    <t>Password6</t>
-  </si>
-  <si>
-    <t>Password7</t>
-  </si>
-  <si>
-    <t>Password8</t>
-  </si>
-  <si>
-    <t>Password9</t>
-  </si>
-  <si>
-    <t>Password10</t>
-  </si>
-  <si>
-    <t>Password11</t>
-  </si>
-  <si>
-    <t>Password12</t>
-  </si>
-  <si>
-    <t>Password13</t>
-  </si>
-  <si>
-    <t>Password14</t>
-  </si>
-  <si>
-    <t>Password15</t>
-  </si>
-  <si>
-    <t>MD SHAHBAZ ALAM</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>12.23</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+  <si>
+    <t>https://mail.google.com/mail/?tab=wm&amp;ogbl</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/imghp?hl=en&amp;tab=wi&amp;ogbl</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in/intl/en/about/products?tab=wh</t>
+  </si>
+  <si>
+    <t>https://accounts.google.com/ServiceLogin?hl=en&amp;passive=true&amp;continue=https://www.google.com/&amp;ec=%0000000</t>
+  </si>
+  <si>
+    <t>https://www.google.com/#</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_KPa7uSSEnoXAaEPI7uZcMTZSGzc%3D&amp;hl=hi&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwiIyaDQz6frAhWc73MBHZKCCgMQ2ZgBCA8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_KPa7uSSEnoXAaEPI7uZcMTZSGzc%3D&amp;hl=bn&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwiIyaDQz6frAhWc73MBHZKCCgMQ2ZgBCBA</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_KPa7uSSEnoXAaEPI7uZcMTZSGzc%3D&amp;hl=te&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwiIyaDQz6frAhWc73MBHZKCCgMQ2ZgBCBE</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_KPa7uSSEnoXAaEPI7uZcMTZSGzc%3D&amp;hl=mr&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwiIyaDQz6frAhWc73MBHZKCCgMQ2ZgBCBI</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_KPa7uSSEnoXAaEPI7uZcMTZSGzc%3D&amp;hl=ta&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwiIyaDQz6frAhWc73MBHZKCCgMQ2ZgBCBM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_KPa7uSSEnoXAaEPI7uZcMTZSGzc%3D&amp;hl=gu&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwiIyaDQz6frAhWc73MBHZKCCgMQ2ZgBCBQ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_KPa7uSSEnoXAaEPI7uZcMTZSGzc%3D&amp;hl=kn&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwiIyaDQz6frAhWc73MBHZKCCgMQ2ZgBCBU</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_KPa7uSSEnoXAaEPI7uZcMTZSGzc%3D&amp;hl=ml&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwiIyaDQz6frAhWc73MBHZKCCgMQ2ZgBCBY</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_KPa7uSSEnoXAaEPI7uZcMTZSGzc%3D&amp;hl=pa&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwiIyaDQz6frAhWc73MBHZKCCgMQ2ZgBCBc</t>
+  </si>
+  <si>
+    <t>https://policies.google.com/privacy?hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://policies.google.com/terms?hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/preferences?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.google.com/preferences?hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/advanced_search?hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/history/privacyadvisor/search/unauth?utm_source=googlemenu&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/history/optout?hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://support.google.com/websearch/?p=ws_results_help&amp;hl=en-IN&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/intl/en_in/ads/?subid=ww-ww-et-g-awa-a-g_hpafoot1_1!o2&amp;utm_source=google.com&amp;utm_medium=referral&amp;utm_campaign=google_hpafooter&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/services/?subid=ww-ww-et-g-awa-a-g_hpbfoot1_1!o2&amp;utm_source=google.com&amp;utm_medium=referral&amp;utm_campaign=google_hpbfooter&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://about.google/?utm_source=google-IN&amp;utm_medium=referral&amp;utm_campaign=hp-footer&amp;fg=1</t>
+  </si>
+  <si>
+    <t>https://google.com/search/howsearchworks/?fg=1</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_cYQ2REKbzMuzQV3G-UTuU__1AdI%3D&amp;hl=hi&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjV8pbiz6frAhUxH7cAHdpTCXEQ2ZgBCA8</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_cYQ2REKbzMuzQV3G-UTuU__1AdI%3D&amp;hl=bn&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjV8pbiz6frAhUxH7cAHdpTCXEQ2ZgBCBA</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_cYQ2REKbzMuzQV3G-UTuU__1AdI%3D&amp;hl=te&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjV8pbiz6frAhUxH7cAHdpTCXEQ2ZgBCBE</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_cYQ2REKbzMuzQV3G-UTuU__1AdI%3D&amp;hl=mr&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjV8pbiz6frAhUxH7cAHdpTCXEQ2ZgBCBI</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_cYQ2REKbzMuzQV3G-UTuU__1AdI%3D&amp;hl=ta&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjV8pbiz6frAhUxH7cAHdpTCXEQ2ZgBCBM</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_cYQ2REKbzMuzQV3G-UTuU__1AdI%3D&amp;hl=gu&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjV8pbiz6frAhUxH7cAHdpTCXEQ2ZgBCBQ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_cYQ2REKbzMuzQV3G-UTuU__1AdI%3D&amp;hl=kn&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjV8pbiz6frAhUxH7cAHdpTCXEQ2ZgBCBU</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_cYQ2REKbzMuzQV3G-UTuU__1AdI%3D&amp;hl=ml&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjV8pbiz6frAhUxH7cAHdpTCXEQ2ZgBCBY</t>
+  </si>
+  <si>
+    <t>https://www.google.com/setprefs?sig=0_cYQ2REKbzMuzQV3G-UTuU__1AdI%3D&amp;hl=pa&amp;source=homepage&amp;sa=X&amp;ved=0ahUKEwjV8pbiz6frAhUxH7cAHdpTCXEQ2ZgBCBc</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/404?#navigation</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/sushi-university</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/sushi-recipes</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/sushi-essentials</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/store</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Makemysushi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/tags/makemysushi/</t>
+  </si>
+  <si>
+    <t>https://plus.google.com/+Makemysushi</t>
+  </si>
+  <si>
+    <t>mailto:info@makemysushi.com</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/404?#</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Recipes/how-to-make-sushi-rice</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Recipes/how-to-make-spicy-tuna-roll</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Recipes/how-to-make-california-sushi-rolls</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Recipes/company-roll</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Recipes/dragon-roll</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Recipes/tuna-wrapped-gunkan-maki</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Recipes/epic-sushi-roll-with-bacon</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Recipes/sushi-leftovers-dinner</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/How-to-make-sushi/maki-roll</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/How-to-make-sushi/nigiri-sushi</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/How-to-make-sushi/spicy-mayonnaise</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/How-to-make-sushi/inside-out-roll</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/How-to-make-sushi/sushi-grade-fish</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/How-to-make-sushi/sushi-sandwich</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/How-to-make-sushi/choosing-a-sushi-knive</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/How-to-make-sushi/top-5-sushi-fish-sites</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Sushi-Essentials/rolling-mat</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Sushi-Essentials/nori</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Sushi-Essentials/unagi-sauce-kabayaki</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Sushi-Essentials/kewpie-mayonnaise-japanese-mayo</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Sushi-Essentials/hangiri</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Sushi-Essentials/shiitake</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Sushi-Essentials/real-wasabi-thats-horseradish</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Sushi-Essentials/panko</t>
+  </si>
+  <si>
+    <t>https://suggestify.co/city/new_york</t>
+  </si>
+  <si>
+    <t>https://tapwater.in/Liverpool</t>
+  </si>
+  <si>
+    <t>https://suggestify.co/city/london</t>
+  </si>
+  <si>
+    <t>https://howmuchjoe.tips/hairdresser/United%20States/</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/privacy-policy</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Sushi-share/contact-us</t>
+  </si>
+  <si>
+    <t>https://makemysushi.com/Sushi-share/about-us</t>
   </si>
 </sst>
 </file>
@@ -460,180 +587,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:A76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>